--- a/blacktoor/evidence.xlsx
+++ b/blacktoor/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\blacktoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE368F-C274-4B57-A6D1-5B3F3F6E6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C41A1CB-A129-412B-8B7C-3EADEDE2ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,65 +38,27 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +105,228 @@
   </si>
   <si>
     <t>Cosmos</t>
+  </si>
+  <si>
+    <t>C73B3FD37F30A64CD23B662FF5F5C29991E17EDEE9D3FC561D0C1896BA1FDAB6</t>
+  </si>
+  <si>
+    <t>blacktoor</t>
+  </si>
+  <si>
+    <t>blacktoornft01</t>
+  </si>
+  <si>
+    <t>72AD33370A12314AFD6A82236EE41F7A9463C40D2E2A8ABF38300C33BB4D5EFA</t>
+  </si>
+  <si>
+    <t>5C6E97A1E3642531841DA6316E973932C4B9B6FADC29ED1F802F291104027B96</t>
+  </si>
+  <si>
+    <t>2B7AE351EC8700B56409453735D30C84FCF82FC1B89D4728DFF1DB9D27087CE4</t>
+  </si>
+  <si>
+    <t>juno16l56fjx4g4zyaj2yr4jnu47e5sqsh6tl9y0prpkumazg0rc7fs9qqe2vq8</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>3E0F520CAD0D3B2FCAA8EE4A7F869D258418A66544594B1102251F290C4BC5F9</t>
+  </si>
+  <si>
+    <t>42164D915140A79A2F8B72AF0CC1A8FD1506555282D2438450BBC13E6199D947</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>E3F2AE4332BEFFD3D72BF22FE159BECBDE482AB50F8A20517F8297ABAE59FBDE</t>
+  </si>
+  <si>
+    <t>C0DBD3149EDC867A019427FF8B2C5798040BD48F623E43B186795D928205BA42</t>
+  </si>
+  <si>
+    <t>blacktoornft07</t>
+  </si>
+  <si>
+    <t>ibc/D8F54E492614AB4C40C0FB6EFF3B0C6BE1347EEB827B8DD1FC1D33F8F725FDBE</t>
+  </si>
+  <si>
+    <t>blacktoornft08</t>
+  </si>
+  <si>
+    <t>ibc/2BCFBADCABC4BBBB044F06ABC2A9801EDE7354C902D46A4A5AED4E7663837C59</t>
+  </si>
+  <si>
+    <t>blacktoornft09</t>
+  </si>
+  <si>
+    <t>ibc/CB7939689D9A6F22BB6A69F62F24B118A5266410DF20BD2CB905045F0BDBC6A5</t>
+  </si>
+  <si>
+    <t>blacktoornft10</t>
+  </si>
+  <si>
+    <t>ibc/D9DCFE2625A2D53E3B838A34B618BADB3B5ACEE5C5354AB44501A50C6A2F8F1C</t>
+  </si>
+  <si>
+    <t>blacktoornft11</t>
+  </si>
+  <si>
+    <t>ibc/53B59F3A33BAF47204A72A9AECC8E0BC9B693FCF9350EB80217AD887FC57FBE3</t>
+  </si>
+  <si>
+    <t>blacktoornft12</t>
+  </si>
+  <si>
+    <t>ibc/30D319131090762D1FF90D627372FF9B3252D017819030FDE5D3B3FAF57A72E9</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>EEDD37CB6659D0F829A0B0B383E6446E5739B25FFEF93D250F7FBDB32088EFA3</t>
+  </si>
+  <si>
+    <t>C14917C88F487496BE50AD601C8D3D807A00698D10913BC124A964D9905CD064</t>
+  </si>
+  <si>
+    <t>7D6FE6BF2C70ED87EE6609CD64927D1D6B26689708B9AE005D3FD06A0C3BB789</t>
+  </si>
+  <si>
+    <t>C44D3F5F7A9654D0FFD7AC6A2C09374CCB91915E8713187DB8574BC0CD910002</t>
+  </si>
+  <si>
+    <t>9C625AE4838183D3F22CC7F098D4D4BA39A0FBE918E00E1DDE926D1E440B206D</t>
+  </si>
+  <si>
+    <t>0A7997CC10A42EF80E2B52AB56BFCF375A3C5711187D5697872A19ED91BB066F</t>
+  </si>
+  <si>
+    <t>4B37AC0658316ACDBE06724137A8083C2A8320FA29D0BB8BB4DA776E03700825</t>
+  </si>
+  <si>
+    <t>597E2E9677BE5701A3DE70843875FEF2471243765A7709364F4A2EBF8A2DEC07</t>
+  </si>
+  <si>
+    <t>545815360D875E635A59F4991EE1441E1235F6A7327BF46366082239064FBFF5</t>
+  </si>
+  <si>
+    <t>7D62244F3BA4CA809D6CA58B0CE3E84C25B2CA2F55C77193D84F52847A50DD03</t>
+  </si>
+  <si>
+    <t>8FD7994EF20174B07E8516F60E7681504A68070C4FA58DF1F8D2CAAAA9CA98E2</t>
+  </si>
+  <si>
+    <t>19757ABFF04CF5C0CE5BAC8BFB979F15EBED38C8F3BE62CF2234091EAE8C7855</t>
+  </si>
+  <si>
+    <t>2A6A361563445B7CDF10FE1886346677531A57F664C8F623B2123C5361E10060</t>
+  </si>
+  <si>
+    <t>4786B3B3E04ADACD55130892D5A255D5489DEA5EA764897D951609B3AA09E871</t>
+  </si>
+  <si>
+    <t>90D1822D87FD1D32FAD20A7845541BF21F93B17579224AD94B5BA5ACDA18F8F1</t>
+  </si>
+  <si>
+    <t>28B3B63EA28E03503A7598E3D235DDD125ED78A51C3CA6BF86C8B16EF1A3F0EA</t>
+  </si>
+  <si>
+    <t>DFA4D855B03F99AF2FC25E78D5107548491AF5A7E0A2AB24E7DF0B9304154B42</t>
+  </si>
+  <si>
+    <t>EDACD8B8E6BEF071D00BEF394CE800A26F288C812D6B4AFF84FB04033ED66797</t>
+  </si>
+  <si>
+    <t>F0DC1E77D225C99A61263807F87ACEE8F08B7A1901C4A1DB7403D4C134BDFADC</t>
+  </si>
+  <si>
+    <t>E9EE2FE64823A04BDE367F6B196432564941C1168B1BB89D88F5A67F9EE4C9F6</t>
+  </si>
+  <si>
+    <t>6FE3AA9F3233828BE4893E221FEACC3120A4A3A0CBEAB4AD887A20666A8BCC20</t>
+  </si>
+  <si>
+    <t>E9209E25E242B9194E17E4697FAE8AC0708CAE5693BBF35FEE4FDDA3DA00B09B</t>
+  </si>
+  <si>
+    <t>7202AF28D90D61B7FD00E6AB76330E7293BF7F4515C6B59834229AE0197D4FE9</t>
+  </si>
+  <si>
+    <t>0CF9A04744FE953E55BC98C9364922B8789BDA4B6C87C8522F414032105E7121</t>
+  </si>
+  <si>
+    <t>2343FCEE5687902A6CD9181F343F98B0174F5046DB18EFCE3A1092444A86B850</t>
+  </si>
+  <si>
+    <t>39B8E3BA9B0F97BFBB46238999915ADEA397380EE3C0D4A1501584BA0A64CC6E</t>
+  </si>
+  <si>
+    <t>923E62321A2091DFF00CAB9104D9D207C221E8BD91FD8E322F5CC7A26F43FAF9</t>
+  </si>
+  <si>
+    <t>C1BE33500477FB5B2237BBA057B60046BE2A67BD9D53AE79DE99743D905AA342</t>
+  </si>
+  <si>
+    <t>8A269301A9F42251AD81DA12E0481397824C2148D231D635E8F0CB1C64E40B19</t>
+  </si>
+  <si>
+    <t>956B930FB063FB4F30D53B7894D5801CFC5C55F202FCD449091596ECF8C49A4A</t>
+  </si>
+  <si>
+    <t>4B1B29D3B015E1FB0FF4191DA85E7A899BE9ADD736873938BD94EC1A1E5F29A5</t>
+  </si>
+  <si>
+    <t>59A62A85CBA3A2771524E04CC9DEC3989C3DC1D8BE5D5FC257CD1777D94C9126</t>
+  </si>
+  <si>
+    <t>49942906658711DF82837BE66473C0DA008A1BB7AC72CCD1D10D7E7EF8C0B30E</t>
+  </si>
+  <si>
+    <t>F989DA90ADAE80CA8BD7D0400DC9926AFC390D91E0308EC3C46B8949B48BB91A</t>
+  </si>
+  <si>
+    <t>9BA3D5168940B27C787FAA4F26C32240E2365BC461BBFE92A039B713FC955ECB</t>
+  </si>
+  <si>
+    <t>67B75B58217034D938D0171EAE49C6ED209B6828082D411B94065DEA211BA396</t>
+  </si>
+  <si>
+    <t>E701E1DDB5448EC02A2ED0DBE3E9CCF8C926632AD7919E0D64959BA4B05A1748</t>
+  </si>
+  <si>
+    <t>D39537779ADD19A8312E686F6BBDE1C84C0BA34A6BEF3E9E75BF1F51B13C8C9B</t>
+  </si>
+  <si>
+    <t>46C9DE43BA1E358732AC46F7B9D88FA3EE5479BFEF8249E73427F60D64CAB55A</t>
+  </si>
+  <si>
+    <t>10180584A1373F9E3DCC4C63F45E7A30710118053341552E5BEF1577A03BE558</t>
+  </si>
+  <si>
+    <t>0451C017BE46CBDC845BA8CCE29456368E7743A830D1E195F64C059E3C3896F9</t>
+  </si>
+  <si>
+    <t>D6B643976263CC225179834ACABC5DD6CBE8A8C5C824A4C0BC4F7CA7AD74D1F1</t>
+  </si>
+  <si>
+    <t>D40804BE7D0D1E43E1C92452C772F1E5A75E5FC7D9E87C8422F020107CACB4A5</t>
+  </si>
+  <si>
+    <t>89817EA8BDD5AB0CD6E24D922E013A1995C820AB5A751421C8224B8A254D922A</t>
+  </si>
+  <si>
+    <t>B4DCCFCFF46A6003A151BEB7FE8A117DEA321BD2B1F7433218CF5869D085B771</t>
+  </si>
+  <si>
+    <t>ED7844969AC4C38EC43ECE96DDDD8C98F3CD083DC062E90DE9CC98375A8BA6AC</t>
   </si>
 </sst>
 </file>
@@ -216,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -228,6 +412,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -537,7 +724,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -555,54 +742,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +804,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -627,18 +816,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +842,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -663,18 +854,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +880,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,18 +892,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +918,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,18 +930,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -759,9 +954,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -774,25 +971,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -805,9 +1016,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -820,25 +1033,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -851,9 +1078,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -866,25 +1095,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -897,9 +1140,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -912,25 +1157,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -943,9 +1202,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -958,25 +1219,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -989,9 +1264,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1004,25 +1281,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1328,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1049,15 +1342,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1070,9 +1363,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1085,71 +1380,133 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1521,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1178,12 +1537,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1557,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1212,12 +1573,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1593,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1246,12 +1609,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1629,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1280,12 +1645,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770B1E91-8CF7-4C20-92C6-08B3D6A5F589}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1298,9 +1693,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1313,21 +1710,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1750,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1356,27 +1766,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1801,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1405,27 +1817,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1852,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1454,27 +1868,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1903,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1504,27 +1920,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1955,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1549,18 +1967,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1993,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1585,18 +2005,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/blacktoor/evidence.xlsx
+++ b/blacktoor/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\blacktoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C41A1CB-A129-412B-8B7C-3EADEDE2ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A77EBB2-9623-4DEC-A151-6B9DEACD2BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>3E0F520CAD0D3B2FCAA8EE4A7F869D258418A66544594B1102251F290C4BC5F9</t>
   </si>
   <si>
-    <t>42164D915140A79A2F8B72AF0CC1A8FD1506555282D2438450BBC13E6199D947</t>
-  </si>
-  <si>
     <t>gon-flixnet-1</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>ED7844969AC4C38EC43ECE96DDDD8C98F3CD083DC062E90DE9CC98375A8BA6AC</t>
+  </si>
+  <si>
+    <t>ibc/42164D915140A79A2F8B72AF0CC1A8FD1506555282D2438450BBC13E6199D947</t>
   </si>
 </sst>
 </file>
@@ -824,10 +824,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +862,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -900,10 +900,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -938,10 +938,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -976,15 +976,77 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -992,15 +1054,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1011,8 +1073,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1038,43 +1100,43 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1100,15 +1162,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1116,15 +1178,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1135,8 +1197,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1162,23 +1224,85 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1186,26 +1310,63 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,15 +1385,93 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1240,192 +1479,31 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1436,84 +1514,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
@@ -1537,12 +1537,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1573,12 +1573,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +1609,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1645,12 +1645,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770B1E91-8CF7-4C20-92C6-08B3D6A5F589}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1675,12 +1675,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1802,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,13 +1831,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1903,8 +1903,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
